--- a/BasicSlot.xlsx
+++ b/BasicSlot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorkelly/Documents/Work/BasicSlotGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40779D87-237A-C34E-AD19-4AAEA159C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EDC426-AB18-FD41-B8DF-E216F98F7E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" activeTab="4" xr2:uid="{1E62B096-205D-1A4D-A4E9-EFBBAB73C312}"/>
   </bookViews>
@@ -15664,7 +15664,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/BasicSlot.xlsx
+++ b/BasicSlot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorkelly/Documents/Work/Project-GAME000/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C1B3E-C2FE-A34C-834A-56B0CB1801D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278F28EA-7820-3E4F-88C8-C397E560FEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{1E62B096-205D-1A4D-A4E9-EFBBAB73C312}"/>
+    <workbookView xWindow="42320" yWindow="500" windowWidth="29400" windowHeight="16640" activeTab="4" xr2:uid="{1E62B096-205D-1A4D-A4E9-EFBBAB73C312}"/>
   </bookViews>
   <sheets>
     <sheet name="bg_0" sheetId="2" r:id="rId1"/>
@@ -2518,7 +2518,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K4"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="G9" s="4" t="str">
         <f>VLOOKUP(A9,Paytable!$D$2:$E$12,2)</f>
-        <v>Wild</v>
+        <v>R1</v>
       </c>
       <c r="H9" t="str">
         <f>VLOOKUP(B9,Paytable!$D$2:$E$12,2)</f>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="G17" s="4" t="str">
         <f>VLOOKUP(A17,Paytable!$D$2:$E$12,2)</f>
-        <v>Wild</v>
+        <v>R1</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(B17,Paytable!$D$2:$E$12,2)</f>
@@ -13374,7 +13374,7 @@
   </sheetPr>
   <dimension ref="A1:R384"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -26655,7 +26655,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -26777,7 +26777,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27130,7 +27130,7 @@
       </c>
       <c r="J3">
         <f>'bg_0 Calculation'!J6</f>
-        <v>0.60216328124999996</v>
+        <v>0.44679199218749999</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -27280,7 +27280,7 @@
       </c>
       <c r="J3" s="22">
         <f>SUM(C48:E56)</f>
-        <v>61661520</v>
+        <v>45751500</v>
       </c>
       <c r="L3" s="35" t="s">
         <v>96</v>
@@ -27291,7 +27291,7 @@
       </c>
       <c r="N3" s="115">
         <f>G64</f>
-        <v>1.4189687499999999E-2</v>
+        <v>1.1124999999999999E-2</v>
       </c>
       <c r="O3" s="172"/>
       <c r="P3" s="172"/>
@@ -27326,11 +27326,11 @@
       </c>
       <c r="M4" s="172">
         <f>(SUM(C20:G21)+SUM(C17:G17))*3/40</f>
-        <v>4.875</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="N4" s="115">
         <f>G66</f>
-        <v>1.4822070312500001E-2</v>
+        <v>1.0781249999999999E-2</v>
       </c>
       <c r="O4" s="35"/>
     </row>
@@ -27356,18 +27356,18 @@
       </c>
       <c r="J5" s="26">
         <f>SUM(C32:E42)</f>
-        <v>5706844</v>
+        <v>4344000</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>98</v>
       </c>
       <c r="M5" s="172">
         <f>(SUM(C22:G23)+SUM(C17:G17))*3/40</f>
-        <v>4.4249999999999998</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="N5" s="115">
         <f>G68</f>
-        <v>1.3477617187500001E-2</v>
+        <v>1.0468750000000001E-2</v>
       </c>
       <c r="O5" s="35"/>
     </row>
@@ -27393,7 +27393,7 @@
       </c>
       <c r="J6" s="102">
         <f>J3/J4</f>
-        <v>0.60216328124999996</v>
+        <v>0.44679199218749999</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="91"/>
@@ -27453,11 +27453,11 @@
       </c>
       <c r="M8" s="115">
         <f>G64*(1-G66)*(1-G68)</f>
-        <v>1.3790958397830805E-2</v>
+        <v>1.088984938659668E-2</v>
       </c>
       <c r="N8" s="169">
         <f>M8*M3</f>
-        <v>6.5162278429750545E-2</v>
+        <v>5.1454538351669313E-2</v>
       </c>
       <c r="O8" s="35"/>
     </row>
@@ -27489,11 +27489,11 @@
       </c>
       <c r="M9" s="115">
         <f>(1-G64)*G66*(1-G68)</f>
-        <v>1.4414818196867978E-2</v>
+        <v>1.0549698019409177E-2</v>
       </c>
       <c r="N9" s="169">
         <f t="shared" ref="N9:N10" si="0">M9*M4</f>
-        <v>7.0272238709731386E-2</v>
+        <v>4.9847323141708359E-2</v>
       </c>
       <c r="O9" s="35"/>
     </row>
@@ -27526,11 +27526,11 @@
       </c>
       <c r="M10" s="115">
         <f>(1-G64)*(1-G66)*G68</f>
-        <v>1.3089442441570124E-2</v>
+        <v>1.0240674581909181E-2</v>
       </c>
       <c r="N10" s="169">
         <f t="shared" si="0"/>
-        <v>5.7920782803947794E-2</v>
+        <v>4.377888383766175E-2</v>
       </c>
       <c r="O10" s="35"/>
     </row>
@@ -27563,11 +27563,11 @@
       </c>
       <c r="M11" s="115">
         <f>G64*G66*(1-G68)</f>
-        <v>2.0748592603393981E-4</v>
+        <v>1.1868576965332029E-4</v>
       </c>
       <c r="N11" s="169">
         <f>M11*M3*M4</f>
-        <v>4.7793086274880315E-3</v>
+        <v>2.6497339861164082E-3</v>
       </c>
       <c r="O11" s="35"/>
     </row>
@@ -27595,11 +27595,11 @@
       </c>
       <c r="M12" s="115">
         <f>G64*G68*(1-G66)</f>
-        <v>1.8840855633179133E-4</v>
+        <v>1.1520920715332032E-4</v>
       </c>
       <c r="N12" s="169">
         <f>M12*M3*M5</f>
-        <v>3.9392696468546337E-3</v>
+        <v>2.3271539787425993E-3</v>
       </c>
       <c r="O12" s="35"/>
     </row>
@@ -27625,11 +27625,11 @@
       </c>
       <c r="M13" s="115">
         <f>G66*G68*(1-G64)</f>
-        <v>1.9693156979462095E-4</v>
+        <v>1.116105743408203E-4</v>
       </c>
       <c r="N13" s="169">
         <f>M13*M4*M5</f>
-        <v>4.2481832071633386E-3</v>
+        <v>2.2544638450756071E-3</v>
       </c>
       <c r="O13" s="35"/>
     </row>
@@ -27645,11 +27645,11 @@
       </c>
       <c r="M14" s="115">
         <f>G64*G66*G68</f>
-        <v>2.8346198034625557E-6</v>
+        <v>1.2556365966796875E-6</v>
       </c>
       <c r="N14" s="169">
         <f>M14*M3*M4*M5</f>
-        <v>2.8892460274406888E-4</v>
+        <v>1.1984052691826819E-4</v>
       </c>
       <c r="O14" s="35"/>
     </row>
@@ -27696,7 +27696,7 @@
       </c>
       <c r="C17" s="78">
         <f>COUNTIF(bg_0!G:G,$B17)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="78">
         <f>COUNTIF(bg_0!H:H,$B17)</f>
@@ -27722,7 +27722,7 @@
       </c>
       <c r="C18" s="53">
         <f>COUNTIF(bg_0!G:G,$B18)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="53">
         <f>COUNTIF(bg_0!H:H,$B18)</f>
@@ -28094,7 +28094,7 @@
       </c>
       <c r="C32" s="50">
         <f>C17*D17*E17*F17*G17</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="D32" s="50">
         <f>C17*D17*E17*F17*(
@@ -28107,7 +28107,7 @@
 +IF(D$3&gt;C$10,G24,IF(D$3&gt;D$10,G24,0))
 +IF(D$3&gt;C$11,G25,IF(D$3&gt;D$11,G25,0))
 +IF(D$3&gt;C$13,G27,IF(D$3&gt;D$13,G27,0)))</f>
-        <v>4896</v>
+        <v>0</v>
       </c>
       <c r="E32" s="50">
         <f>C17*D17*E17*(
@@ -28129,7 +28129,7 @@
 +IF(E$3&gt;C$10,G24,0)
 +IF(E$3&gt;C$11,G25,0)
 +G17+G27)</f>
-        <v>2808</v>
+        <v>0</v>
       </c>
       <c r="F32" s="50"/>
       <c r="G32" s="56"/>
@@ -28153,15 +28153,15 @@
       </c>
       <c r="C33" s="53">
         <f>((C18+C$17)*(D18+D$17)*(E18+E$17)*(F18+F$17)*(G18+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C4,(F18+F$17)*(G18+G$17),IF($D$3&gt;$C4,F$17*(G18+G$17),F$17*G$17)))</f>
-        <v>15248</v>
+        <v>15680</v>
       </c>
       <c r="D33" s="53">
         <f>((C18+C$17)*(D18+D$17)*(E18+E$17)*(F18+F$17)-C$17*D$17*IF($E$3&gt;$D4,E$17*(F18+F$17),E$17*F$17))*(G$28-G18-G$17)</f>
-        <v>104720</v>
+        <v>109760</v>
       </c>
       <c r="E33" s="53">
         <f>((C18+C$17)*(D18+D$17)*(E18+E$17)*(F$28-F18-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F18)*$G$28</f>
-        <v>543840</v>
+        <v>591360</v>
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="33"/>
@@ -28170,7 +28170,7 @@
       </c>
       <c r="J33" s="53">
         <f>IF($C$3&gt;C4,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K33" s="53">
         <f>IF($D$3&gt;C4,$C$17*$D$17*$E$17*$F$17*G18,0)</f>
@@ -28182,11 +28182,11 @@
       </c>
       <c r="M33" s="55">
         <f t="shared" ref="M33:M40" si="1">SUM(J33:L33)</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="N33" s="53">
         <f>IF($D$3&gt;D4,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G18),0)</f>
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="O33" s="54">
         <f>IF($E$3&gt;D4,$C$17*$D$17*$E$17*F18*($G$28-$G$17-G18),0)</f>
@@ -28194,15 +28194,15 @@
       </c>
       <c r="P33" s="55">
         <f t="shared" ref="P33:P40" si="2">SUM(N33:O33)</f>
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="54">
         <f>IF($E$3&gt;E4,$C$17*$D$17*$E$17*($F$28-$F$17-F18)*$G$28,0)</f>
-        <v>47520</v>
+        <v>0</v>
       </c>
       <c r="R33" s="55">
         <f t="shared" ref="R33:R40" si="3">SUM(Q33)</f>
-        <v>47520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.15">
@@ -28211,15 +28211,15 @@
       </c>
       <c r="C34" s="53">
         <f>((C19+C$17)*(D19+D$17)*(E19+E$17)*(F19+F$17)*(G19+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C5,(F19+F$17)*(G19+G$17),IF($D$3&gt;$C5,F$17*(G19+G$17),F$17*G$17)))</f>
-        <v>45312</v>
+        <v>23232</v>
       </c>
       <c r="D34" s="53">
         <f>((C19+C$17)*(D19+D$17)*(E19+E$17)*(F19+F$17)-C$17*D$17*IF($E$3&gt;$D5,E$17*(F19+F$17),E$17*F$17))*(G$28-G19-G$17)</f>
-        <v>173184</v>
+        <v>92928</v>
       </c>
       <c r="E34" s="53">
         <f>((C19+C$17)*(D19+D$17)*(E19+E$17)*(F$28-F19-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F19)*$G$28</f>
-        <v>570720</v>
+        <v>306240</v>
       </c>
       <c r="F34" s="53"/>
       <c r="G34" s="33"/>
@@ -28228,11 +28228,11 @@
       </c>
       <c r="J34" s="53">
         <f>IF($C$3&gt;C5,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K34" s="53">
         <f>IF($D$3&gt;C5,$C$17*$D$17*$E$17*$F$17*G19,0)</f>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="L34" s="54">
         <f>IF($E$3&gt;C5,$C$17*$D$17*$E$17*F19*($G$17+G19),0)</f>
@@ -28240,27 +28240,27 @@
       </c>
       <c r="M34" s="55">
         <f t="shared" si="1"/>
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="N34" s="53">
         <f>IF($D$3&gt;D5,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G19),0)</f>
-        <v>4608</v>
+        <v>0</v>
       </c>
       <c r="O34" s="54">
         <f>IF($E$3&gt;D5,$C$17*$D$17*$E$17*F19*($G$28-$G$17-G19),0)</f>
-        <v>8064</v>
+        <v>0</v>
       </c>
       <c r="P34" s="55">
         <f t="shared" si="2"/>
-        <v>12672</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="54">
         <f>IF($E$3&gt;E5,$C$17*$D$17*$E$17*($F$28-$F$17-F19)*$G$28,0)</f>
-        <v>41760</v>
+        <v>0</v>
       </c>
       <c r="R34" s="55">
         <f t="shared" si="3"/>
-        <v>41760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.15">
@@ -28269,15 +28269,15 @@
       </c>
       <c r="C35" s="53">
         <f>((C20+C$17)*(D20+D$17)*(E20+E$17)*(F20+F$17)*(G20+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C6,(F20+F$17)*(G20+G$17),IF($D$3&gt;$C6,F$17*(G20+G$17),F$17*G$17)))</f>
-        <v>9648</v>
+        <v>5040</v>
       </c>
       <c r="D35" s="53">
         <f>((C20+C$17)*(D20+D$17)*(E20+E$17)*(F20+F$17)-C$17*D$17*IF($E$3&gt;$D6,E$17*(F20+F$17),E$17*F$17))*(G$28-G20-G$17)</f>
-        <v>65520</v>
+        <v>35280</v>
       </c>
       <c r="E35" s="53">
         <f>((C20+C$17)*(D20+D$17)*(E20+E$17)*(F$28-F20-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F20)*$G$28</f>
-        <v>332640</v>
+        <v>190080</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="33"/>
@@ -28286,7 +28286,7 @@
       </c>
       <c r="J35" s="53">
         <f>IF($C$3&gt;C6,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K35" s="53">
         <f>IF($D$3&gt;C6,$C$17*$D$17*$E$17*$F$17*G20,0)</f>
@@ -28298,11 +28298,11 @@
       </c>
       <c r="M35" s="55">
         <f t="shared" si="1"/>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="N35" s="53">
         <f>IF($D$3&gt;D6,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G20),0)</f>
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="O35" s="54">
         <f>IF($E$3&gt;D6,$C$17*$D$17*$E$17*F20*($G$28-$G$17-G20),0)</f>
@@ -28310,15 +28310,15 @@
       </c>
       <c r="P35" s="55">
         <f t="shared" si="2"/>
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="54">
         <f>IF($E$3&gt;E6,$C$17*$D$17*$E$17*($F$28-$F$17-F20)*$G$28,0)</f>
-        <v>47520</v>
+        <v>0</v>
       </c>
       <c r="R35" s="55">
         <f t="shared" si="3"/>
-        <v>47520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.15">
@@ -28327,15 +28327,15 @@
       </c>
       <c r="C36" s="53">
         <f>((C21+C$17)*(D21+D$17)*(E21+E$17)*(F21+F$17)*(G21+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C7,(F21+F$17)*(G21+G$17),IF($D$3&gt;$C7,F$17*(G21+G$17),F$17*G$17)))</f>
-        <v>86504</v>
+        <v>66066</v>
       </c>
       <c r="D36" s="53">
         <f>((C21+C$17)*(D21+D$17)*(E21+E$17)*(F21+F$17)-C$17*D$17*IF($E$3&gt;$D7,E$17*(F21+F$17),E$17*F$17))*(G$28-G21-G$17)</f>
-        <v>220748</v>
+        <v>174174</v>
       </c>
       <c r="E36" s="53">
         <f>((C21+C$17)*(D21+D$17)*(E21+E$17)*(F$28-F21-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F21)*$G$28</f>
-        <v>802720</v>
+        <v>633360</v>
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="33"/>
@@ -28344,11 +28344,11 @@
       </c>
       <c r="J36" s="53">
         <f>IF($C$3&gt;C7,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K36" s="53">
         <f>IF($D$3&gt;C7,$C$17*$D$17*$E$17*$F$17*G21,0)</f>
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="L36" s="54">
         <f>IF($E$3&gt;C7,$C$17*$D$17*$E$17*F21*($G$17+G21),0)</f>
@@ -28356,27 +28356,27 @@
       </c>
       <c r="M36" s="55">
         <f t="shared" si="1"/>
-        <v>1584</v>
+        <v>0</v>
       </c>
       <c r="N36" s="53">
         <f>IF($D$3&gt;D7,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G21),0)</f>
-        <v>4176</v>
+        <v>0</v>
       </c>
       <c r="O36" s="54">
         <f>IF($E$3&gt;D7,$C$17*$D$17*$E$17*F21*($G$28-$G$17-G21),0)</f>
-        <v>7308</v>
+        <v>0</v>
       </c>
       <c r="P36" s="55">
         <f t="shared" si="2"/>
-        <v>11484</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="54">
         <f>IF($E$3&gt;E7,$C$17*$D$17*$E$17*($F$28-$F$17-F21)*$G$28,0)</f>
-        <v>41760</v>
+        <v>0</v>
       </c>
       <c r="R36" s="55">
         <f t="shared" si="3"/>
-        <v>41760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.15">
@@ -28385,15 +28385,15 @@
       </c>
       <c r="C37" s="53">
         <f>((C22+C$17)*(D22+D$17)*(E22+E$17)*(F22+F$17)*(G22+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C8,(F22+F$17)*(G22+G$17),IF($D$3&gt;$C8,F$17*(G22+G$17),F$17*G$17)))</f>
-        <v>7968</v>
+        <v>2800</v>
       </c>
       <c r="D37" s="53">
         <f>((C22+C$17)*(D22+D$17)*(E22+E$17)*(F22+F$17)-C$17*D$17*IF($E$3&gt;$D8,E$17*(F22+F$17),E$17*F$17))*(G$28-G22-G$17)</f>
-        <v>53760</v>
+        <v>19600</v>
       </c>
       <c r="E37" s="53">
         <f>((C22+C$17)*(D22+D$17)*(E22+E$17)*(F$28-F22-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F22)*$G$28</f>
-        <v>222720</v>
+        <v>89600</v>
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="33"/>
@@ -28402,7 +28402,7 @@
       </c>
       <c r="J37" s="53">
         <f>IF($C$3&gt;C8,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K37" s="53">
         <f>IF($D$3&gt;C8,$C$17*$D$17*$E$17*$F$17*G22,0)</f>
@@ -28414,11 +28414,11 @@
       </c>
       <c r="M37" s="55">
         <f t="shared" si="1"/>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="N37" s="53">
         <f>IF($D$3&gt;D8,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G22),0)</f>
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="O37" s="54">
         <f>IF($E$3&gt;D8,$C$17*$D$17*$E$17*F22*($G$28-$G$17-G22),0)</f>
@@ -28426,15 +28426,15 @@
       </c>
       <c r="P37" s="55">
         <f t="shared" si="2"/>
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="54">
         <f>IF($E$3&gt;E8,$C$17*$D$17*$E$17*($F$28-$F$17-F22)*$G$28,0)</f>
-        <v>46080</v>
+        <v>0</v>
       </c>
       <c r="R37" s="55">
         <f t="shared" si="3"/>
-        <v>46080</v>
+        <v>0</v>
       </c>
       <c r="S37" s="35"/>
     </row>
@@ -28444,15 +28444,15 @@
       </c>
       <c r="C38" s="53">
         <f>((C23+C$17)*(D23+D$17)*(E23+E$17)*(F23+F$17)*(G23+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C9,(F23+F$17)*(G23+G$17),IF($D$3&gt;$C9,F$17*(G23+G$17),F$17*G$17)))</f>
-        <v>44352</v>
+        <v>37800</v>
       </c>
       <c r="D38" s="53">
         <f>((C23+C$17)*(D23+D$17)*(E23+E$17)*(F23+F$17)-C$17*D$17*IF($E$3&gt;$D9,E$17*(F23+F$17),E$17*F$17))*(G$28-G23-G$17)</f>
-        <v>203148</v>
+        <v>178200</v>
       </c>
       <c r="E38" s="53">
         <f>((C23+C$17)*(D23+D$17)*(E23+E$17)*(F$28-F23-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F23)*$G$28</f>
-        <v>848160</v>
+        <v>744000</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="33"/>
@@ -28461,11 +28461,11 @@
       </c>
       <c r="J38" s="53">
         <f>IF($C$3&gt;C9,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K38" s="53">
         <f>IF($D$3&gt;C9,$C$17*$D$17*$E$17*$F$17*G23,0)</f>
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="L38" s="54">
         <f>IF($E$3&gt;C9,$C$17*$D$17*$E$17*F23*($G$17+G23),0)</f>
@@ -28473,27 +28473,27 @@
       </c>
       <c r="M38" s="55">
         <f t="shared" si="1"/>
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="N38" s="53">
         <f>IF($D$3&gt;D9,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G23),0)</f>
-        <v>4752</v>
+        <v>0</v>
       </c>
       <c r="O38" s="54">
         <f>IF($E$3&gt;D9,$C$17*$D$17*$E$17*F23*($G$28-$G$17-G23),0)</f>
-        <v>5940</v>
+        <v>0</v>
       </c>
       <c r="P38" s="55">
         <f t="shared" si="2"/>
-        <v>10692</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="54">
         <f>IF($E$3&gt;E9,$C$17*$D$17*$E$17*($F$28-$F$17-F23)*$G$28,0)</f>
-        <v>44640</v>
+        <v>0</v>
       </c>
       <c r="R38" s="55">
         <f t="shared" si="3"/>
-        <v>44640</v>
+        <v>0</v>
       </c>
       <c r="S38" s="35"/>
     </row>
@@ -28503,15 +28503,15 @@
       </c>
       <c r="C39" s="53">
         <f>((C24+C$17)*(D24+D$17)*(E24+E$17)*(F24+F$17)*(G24+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C10,(F24+F$17)*(G24+G$17),IF($D$3&gt;$C10,F$17*(G24+G$17),F$17*G$17)))</f>
-        <v>20944</v>
+        <v>16464</v>
       </c>
       <c r="D39" s="53">
         <f>((C24+C$17)*(D24+D$17)*(E24+E$17)*(F24+F$17)-C$17*D$17*IF($E$3&gt;$D10,E$17*(F24+F$17),E$17*F$17))*(G$28-G24-G$17)</f>
-        <v>95172</v>
+        <v>77616</v>
       </c>
       <c r="E39" s="53">
         <f>((C24+C$17)*(D24+D$17)*(E24+E$17)*(F$28-F24-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F24)*$G$28</f>
-        <v>543840</v>
+        <v>443520</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="33"/>
@@ -28520,11 +28520,11 @@
       </c>
       <c r="J39" s="53">
         <f>IF($C$3&gt;C10,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K39" s="53">
         <f>IF($D$3&gt;C10,$C$17*$D$17*$E$17*$F$17*G24,0)</f>
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="L39" s="54">
         <f>IF($E$3&gt;C10,$C$17*$D$17*$E$17*F24*($G$17+G24),0)</f>
@@ -28532,27 +28532,27 @@
       </c>
       <c r="M39" s="55">
         <f t="shared" si="1"/>
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="N39" s="53">
         <f>IF($D$3&gt;D10,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G24),0)</f>
-        <v>4752</v>
+        <v>0</v>
       </c>
       <c r="O39" s="54">
         <f>IF($E$3&gt;D10,$C$17*$D$17*$E$17*F24*($G$28-$G$17-G24),0)</f>
-        <v>3564</v>
+        <v>0</v>
       </c>
       <c r="P39" s="55">
         <f t="shared" si="2"/>
-        <v>8316</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="54">
         <f>IF($E$3&gt;E10,$C$17*$D$17*$E$17*($F$28-$F$17-F24)*$G$28,0)</f>
-        <v>47520</v>
+        <v>0</v>
       </c>
       <c r="R39" s="55">
         <f t="shared" si="3"/>
-        <v>47520</v>
+        <v>0</v>
       </c>
       <c r="S39" s="35"/>
     </row>
@@ -28562,15 +28562,15 @@
       </c>
       <c r="C40" s="53">
         <f>((C25+C$17)*(D25+D$17)*(E25+E$17)*(F25+F$17)*(G25+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C11,(F25+F$17)*(G25+G$17),IF($D$3&gt;$C11,F$17*(G25+G$17),F$17*G$17)))</f>
-        <v>32160</v>
+        <v>22400</v>
       </c>
       <c r="D40" s="53">
         <f>((C25+C$17)*(D25+D$17)*(E25+E$17)*(F25+F$17)-C$17*D$17*IF($E$3&gt;$D11,E$17*(F25+F$17),E$17*F$17))*(G$28-G25-G$17)</f>
-        <v>92160</v>
+        <v>67200</v>
       </c>
       <c r="E40" s="53">
         <f>((C25+C$17)*(D25+D$17)*(E25+E$17)*(F$28-F25-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F25)*$G$28</f>
-        <v>491520</v>
+        <v>358400</v>
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="33"/>
@@ -28579,11 +28579,11 @@
       </c>
       <c r="J40" s="58">
         <f>IF($C$3&gt;C11,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K40" s="58">
         <f>IF($D$3&gt;C11,$C$17*$D$17*$E$17*$F$17*G25,0)</f>
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="L40" s="59">
         <f>IF($E$3&gt;C11,$C$17*$D$17*$E$17*F25*($G$17+G25),0)</f>
@@ -28591,27 +28591,27 @@
       </c>
       <c r="M40" s="60">
         <f t="shared" si="1"/>
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="N40" s="58">
         <f>IF($D$3&gt;D11,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G25),0)</f>
-        <v>4320</v>
+        <v>0</v>
       </c>
       <c r="O40" s="59">
         <f>IF($E$3&gt;D11,$C$17*$D$17*$E$17*F25*($G$28-$G$17-G25),0)</f>
-        <v>4320</v>
+        <v>0</v>
       </c>
       <c r="P40" s="60">
         <f t="shared" si="2"/>
-        <v>8640</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="59">
         <f>IF($E$3&gt;E11,$C$17*$D$17*$E$17*($F$28-$F$17-F25)*$G$28,0)</f>
-        <v>46080</v>
+        <v>0</v>
       </c>
       <c r="R40" s="60">
         <f t="shared" si="3"/>
-        <v>46080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.15">
@@ -28620,15 +28620,15 @@
       </c>
       <c r="C41" s="53">
         <f>((C26+C$17)*(D26+D$17)*(E26+E$17)*(F26+F$17)*(G26+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C12,(F26+F$17)*(G26+G$17),IF($D$3&gt;$C12,F$17*(G26+G$17),F$17*G$17)))</f>
-        <v>1080</v>
+        <v>648</v>
       </c>
       <c r="D41" s="53">
         <f>((C26+C$17)*(D26+D$17)*(E26+E$17)*(F26+F$17)-C$17*D$17*IF($E$3&gt;$D12,E$17*(F26+F$17),E$17*F$17))*(G$28-G26-G$17)</f>
-        <v>6120</v>
+        <v>3672</v>
       </c>
       <c r="E41" s="53">
         <f>((C26+C$17)*(D26+D$17)*(E26+E$17)*(F$28-F26-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F26)*$G$28</f>
-        <v>64800</v>
+        <v>38880</v>
       </c>
       <c r="F41" s="166"/>
       <c r="G41" s="167"/>
@@ -28723,15 +28723,15 @@
       </c>
       <c r="C48" s="50">
         <f>C32*C3*$J$8</f>
-        <v>216000</v>
+        <v>0</v>
       </c>
       <c r="D48" s="50">
         <f t="shared" ref="D48:E48" si="4">D32*D3*$J$8</f>
-        <v>489600</v>
+        <v>0</v>
       </c>
       <c r="E48" s="50">
         <f t="shared" si="4"/>
-        <v>70200</v>
+        <v>0</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="56"/>
@@ -28741,15 +28741,15 @@
       </c>
       <c r="J48" s="50">
         <f>C48</f>
-        <v>216000</v>
+        <v>0</v>
       </c>
       <c r="K48" s="50">
         <f t="shared" ref="K48:L48" si="5">D48</f>
-        <v>489600</v>
+        <v>0</v>
       </c>
       <c r="L48" s="50">
         <f t="shared" si="5"/>
-        <v>70200</v>
+        <v>0</v>
       </c>
       <c r="M48" s="50"/>
       <c r="N48" s="56"/>
@@ -28760,15 +28760,15 @@
       </c>
       <c r="C49" s="50">
         <f t="shared" ref="C49:E49" si="6">C33*C4*$J$8</f>
-        <v>1524800</v>
+        <v>1568000</v>
       </c>
       <c r="D49" s="50">
         <f t="shared" si="6"/>
-        <v>4188800</v>
+        <v>4390400</v>
       </c>
       <c r="E49" s="50">
         <f t="shared" si="6"/>
-        <v>5438400</v>
+        <v>5913600</v>
       </c>
       <c r="F49" s="53"/>
       <c r="G49" s="33"/>
@@ -28777,15 +28777,15 @@
       </c>
       <c r="J49" s="50">
         <f>C49*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
-        <v>8185996.1778942635</v>
+        <v>8134678.2129316023</v>
       </c>
       <c r="K49" s="50">
         <f t="shared" ref="K49:L49" si="7">D49*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
-        <v>22487867.77935696</v>
+        <v>22777098.996208489</v>
       </c>
       <c r="L49" s="50">
         <f t="shared" si="7"/>
-        <v>29196433.377400421</v>
+        <v>30679357.83162776</v>
       </c>
       <c r="M49" s="53"/>
       <c r="N49" s="33"/>
@@ -28796,15 +28796,15 @@
       </c>
       <c r="C50" s="50">
         <f t="shared" ref="C50:E50" si="8">C34*C5*$J$8</f>
-        <v>2265600</v>
+        <v>1161600</v>
       </c>
       <c r="D50" s="50">
         <f t="shared" si="8"/>
-        <v>3463680</v>
+        <v>1858560</v>
       </c>
       <c r="E50" s="50">
         <f t="shared" si="8"/>
-        <v>2853600</v>
+        <v>1531200</v>
       </c>
       <c r="F50" s="53"/>
       <c r="G50" s="33"/>
@@ -28813,15 +28813,15 @@
       </c>
       <c r="J50" s="50">
         <f>C50*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
-        <v>12163033.145748457</v>
+        <v>6026302.4312125966</v>
       </c>
       <c r="K50" s="50">
         <f t="shared" ref="K50" si="9">D50*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
-        <v>18595009.995703571</v>
+        <v>9642083.8899401538</v>
       </c>
       <c r="L50" s="50">
         <f t="shared" ref="L50" si="10">E50*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
-        <v>15319752.553278508</v>
+        <v>7943762.2956893304</v>
       </c>
       <c r="M50" s="53"/>
       <c r="N50" s="33"/>
@@ -28832,15 +28832,15 @@
       </c>
       <c r="C51" s="50">
         <f t="shared" ref="C51:E51" si="11">C35*C6*$J$8</f>
-        <v>964800</v>
+        <v>504000</v>
       </c>
       <c r="D51" s="50">
         <f t="shared" si="11"/>
-        <v>2620800</v>
+        <v>1411200</v>
       </c>
       <c r="E51" s="50">
         <f t="shared" si="11"/>
-        <v>3326400</v>
+        <v>1900800</v>
       </c>
       <c r="F51" s="53"/>
       <c r="G51" s="33"/>
@@ -28849,15 +28849,15 @@
       </c>
       <c r="J51" s="50">
         <f>C51*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
-        <v>5318055.6720072972</v>
+        <v>2618759.0158292945</v>
       </c>
       <c r="K51" s="50">
         <f t="shared" ref="K51:L51" si="12">D51*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
-        <v>14446061.676198926</v>
+        <v>7332525.2443220234</v>
       </c>
       <c r="L51" s="50">
         <f t="shared" si="12"/>
-        <v>18335385.9736371</v>
+        <v>9876462.5739847682</v>
       </c>
       <c r="M51" s="53"/>
       <c r="N51" s="33"/>
@@ -28868,15 +28868,15 @@
       </c>
       <c r="C52" s="50">
         <f t="shared" ref="C52:E52" si="13">C36*C7*$J$8</f>
-        <v>4325200</v>
+        <v>3303300</v>
       </c>
       <c r="D52" s="50">
         <f t="shared" si="13"/>
-        <v>4414960</v>
+        <v>3483480</v>
       </c>
       <c r="E52" s="50">
         <f t="shared" si="13"/>
-        <v>4013600</v>
+        <v>3166800</v>
       </c>
       <c r="F52" s="53"/>
       <c r="G52" s="33"/>
@@ -28885,15 +28885,15 @@
       </c>
       <c r="J52" s="50">
         <f>C52*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
-        <v>23840852.396938186</v>
+        <v>17163783.049581163</v>
       </c>
       <c r="K52" s="50">
         <f t="shared" ref="K52" si="14">D52*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
-        <v>24335616.780353788</v>
+        <v>18099989.397740137</v>
       </c>
       <c r="L52" s="50">
         <f t="shared" ref="L52" si="15">E52*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
-        <v>22123287.982139811</v>
+        <v>16454535.816127397</v>
       </c>
       <c r="M52" s="53"/>
       <c r="N52" s="33"/>
@@ -28904,15 +28904,15 @@
       </c>
       <c r="C53" s="50">
         <f t="shared" ref="C53:E53" si="16">C37*C8*$J$8</f>
-        <v>796800</v>
+        <v>280000</v>
       </c>
       <c r="D53" s="50">
         <f t="shared" si="16"/>
-        <v>2150400</v>
+        <v>784000</v>
       </c>
       <c r="E53" s="50">
         <f t="shared" si="16"/>
-        <v>2227200</v>
+        <v>896000</v>
       </c>
       <c r="F53" s="53"/>
       <c r="G53" s="33"/>
@@ -28921,15 +28921,15 @@
       </c>
       <c r="J53" s="50">
         <f>C53*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
-        <v>4034084.4362957804</v>
+        <v>1324103.2033351683</v>
       </c>
       <c r="K53" s="50">
         <f t="shared" ref="K53:L53" si="17">D53*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
-        <v>10887167.635304274</v>
+        <v>3707488.969338472</v>
       </c>
       <c r="L53" s="50">
         <f t="shared" si="17"/>
-        <v>11275995.050850857</v>
+        <v>4237130.2506725388</v>
       </c>
       <c r="M53" s="53"/>
       <c r="N53" s="33"/>
@@ -28940,15 +28940,15 @@
       </c>
       <c r="C54" s="50">
         <f t="shared" ref="C54:E54" si="18">C38*C9*$J$8</f>
-        <v>2217600</v>
+        <v>1890000</v>
       </c>
       <c r="D54" s="50">
         <f t="shared" si="18"/>
-        <v>4062960</v>
+        <v>3564000</v>
       </c>
       <c r="E54" s="50">
         <f t="shared" si="18"/>
-        <v>4240800</v>
+        <v>3720000</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="33"/>
@@ -28957,15 +28957,15 @@
       </c>
       <c r="J54" s="50">
         <f>C54*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
-        <v>11227391.623907533</v>
+        <v>8937696.6225123871</v>
       </c>
       <c r="K54" s="50">
         <f t="shared" ref="K54" si="19">D54*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
-        <v>20570185.368087731</v>
+        <v>16853942.202451933</v>
       </c>
       <c r="L54" s="50">
         <f t="shared" ref="L54" si="20">E54*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
-        <v>21470563.852212783</v>
+        <v>17591656.844310094</v>
       </c>
       <c r="M54" s="53"/>
       <c r="N54" s="33"/>
@@ -28976,15 +28976,15 @@
       </c>
       <c r="C55" s="50">
         <f t="shared" ref="C55:E55" si="21">C39*C10*$J$8</f>
-        <v>523600</v>
+        <v>411600</v>
       </c>
       <c r="D55" s="50">
         <f t="shared" si="21"/>
-        <v>951720</v>
+        <v>776160</v>
       </c>
       <c r="E55" s="50">
         <f t="shared" si="21"/>
-        <v>1359600</v>
+        <v>1108800</v>
       </c>
       <c r="F55" s="53"/>
       <c r="G55" s="33"/>
@@ -28993,15 +28993,15 @@
       </c>
       <c r="J55" s="50">
         <f t="shared" ref="J49:J57" si="22">C55</f>
-        <v>523600</v>
+        <v>411600</v>
       </c>
       <c r="K55" s="50">
         <f t="shared" ref="K49:K57" si="23">D55</f>
-        <v>951720</v>
+        <v>776160</v>
       </c>
       <c r="L55" s="50">
         <f t="shared" ref="L49:L57" si="24">E55</f>
-        <v>1359600</v>
+        <v>1108800</v>
       </c>
       <c r="M55" s="53"/>
       <c r="N55" s="33"/>
@@ -29012,15 +29012,15 @@
       </c>
       <c r="C56" s="50">
         <f t="shared" ref="C56:E57" si="25">C40*C11*$J$8</f>
-        <v>804000</v>
+        <v>560000</v>
       </c>
       <c r="D56" s="50">
         <f t="shared" si="25"/>
-        <v>921600</v>
+        <v>672000</v>
       </c>
       <c r="E56" s="50">
         <f t="shared" si="25"/>
-        <v>1228800</v>
+        <v>896000</v>
       </c>
       <c r="F56" s="53"/>
       <c r="G56" s="33"/>
@@ -29029,15 +29029,15 @@
       </c>
       <c r="J56" s="50">
         <f t="shared" si="22"/>
-        <v>804000</v>
+        <v>560000</v>
       </c>
       <c r="K56" s="50">
         <f t="shared" si="23"/>
-        <v>921600</v>
+        <v>672000</v>
       </c>
       <c r="L56" s="50">
         <f t="shared" si="24"/>
-        <v>1228800</v>
+        <v>896000</v>
       </c>
       <c r="M56" s="53"/>
       <c r="N56" s="33"/>
@@ -29048,15 +29048,15 @@
       </c>
       <c r="C57" s="50">
         <f t="shared" si="25"/>
-        <v>27000</v>
+        <v>16200</v>
       </c>
       <c r="D57" s="50">
         <f t="shared" si="25"/>
-        <v>61200</v>
+        <v>36720</v>
       </c>
       <c r="E57" s="50">
         <f t="shared" si="25"/>
-        <v>162000</v>
+        <v>97200</v>
       </c>
       <c r="F57" s="166"/>
       <c r="G57" s="167"/>
@@ -29065,20 +29065,20 @@
       </c>
       <c r="J57" s="50">
         <f t="shared" si="22"/>
-        <v>27000</v>
+        <v>16200</v>
       </c>
       <c r="K57" s="50">
         <f t="shared" si="23"/>
-        <v>61200</v>
+        <v>36720</v>
       </c>
       <c r="L57" s="50">
         <f t="shared" si="24"/>
-        <v>162000</v>
+        <v>97200</v>
       </c>
       <c r="M57" s="166"/>
       <c r="N57" s="177">
         <f>SUM(J48:L58)/PRODUCT(C28:G28)</f>
-        <v>2.9358209128644162</v>
+        <v>2.0896097348419467</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -29148,15 +29148,15 @@
       </c>
       <c r="C62" s="173">
         <f>C32/PRODUCT($C$28:$G$28)</f>
-        <v>4.2187500000000001E-6</v>
+        <v>0</v>
       </c>
       <c r="D62" s="173">
         <f t="shared" ref="D62:E62" si="26">D32/PRODUCT($C$28:$G$28)</f>
-        <v>4.7812499999999997E-5</v>
+        <v>0</v>
       </c>
       <c r="E62" s="173">
         <f t="shared" si="26"/>
-        <v>2.7421875000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="F62" s="50"/>
       <c r="G62" s="56"/>
@@ -29169,15 +29169,15 @@
       </c>
       <c r="C63" s="173">
         <f t="shared" ref="C63:E63" si="27">C33/PRODUCT($C$28:$G$28)</f>
-        <v>1.4890625E-4</v>
+        <v>1.53125E-4</v>
       </c>
       <c r="D63" s="173">
         <f t="shared" si="27"/>
-        <v>1.0226562499999999E-3</v>
+        <v>1.0718749999999999E-3</v>
       </c>
       <c r="E63" s="173">
         <f t="shared" si="27"/>
-        <v>5.3109374999999997E-3</v>
+        <v>5.7749999999999998E-3</v>
       </c>
       <c r="F63" s="53"/>
       <c r="G63" s="33"/>
@@ -29190,22 +29190,22 @@
       </c>
       <c r="C64" s="173">
         <f t="shared" ref="C64:E64" si="28">C34/PRODUCT($C$28:$G$28)</f>
-        <v>4.4250000000000002E-4</v>
+        <v>2.26875E-4</v>
       </c>
       <c r="D64" s="173">
         <f t="shared" si="28"/>
-        <v>1.69125E-3</v>
+        <v>9.075E-4</v>
       </c>
       <c r="E64" s="173">
         <f t="shared" si="28"/>
-        <v>5.5734375000000003E-3</v>
+        <v>2.9906249999999998E-3</v>
       </c>
       <c r="F64" s="53" t="s">
         <v>96</v>
       </c>
       <c r="G64" s="176">
         <f>SUM(C63:E64)</f>
-        <v>1.4189687499999999E-2</v>
+        <v>1.1124999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.15">
@@ -29214,15 +29214,15 @@
       </c>
       <c r="C65" s="173">
         <f t="shared" ref="C65:E65" si="29">C35/PRODUCT($C$28:$G$28)</f>
-        <v>9.4218749999999996E-5</v>
+        <v>4.921875E-5</v>
       </c>
       <c r="D65" s="173">
         <f t="shared" si="29"/>
-        <v>6.3984375E-4</v>
+        <v>3.4453125E-4</v>
       </c>
       <c r="E65" s="173">
         <f t="shared" si="29"/>
-        <v>3.2484375E-3</v>
+        <v>1.85625E-3</v>
       </c>
       <c r="F65" s="53"/>
       <c r="G65" s="33"/>
@@ -29233,22 +29233,22 @@
       </c>
       <c r="C66" s="173">
         <f t="shared" ref="C66:E66" si="30">C36/PRODUCT($C$28:$G$28)</f>
-        <v>8.4476562500000003E-4</v>
+        <v>6.4517578125000002E-4</v>
       </c>
       <c r="D66" s="173">
         <f t="shared" si="30"/>
-        <v>2.1557421874999999E-3</v>
+        <v>1.7009179687500001E-3</v>
       </c>
       <c r="E66" s="173">
         <f t="shared" si="30"/>
-        <v>7.8390625000000005E-3</v>
+        <v>6.1851562499999997E-3</v>
       </c>
       <c r="F66" s="53" t="s">
         <v>97</v>
       </c>
       <c r="G66" s="176">
         <f>SUM(C65:E66)</f>
-        <v>1.4822070312500001E-2</v>
+        <v>1.0781249999999999E-2</v>
       </c>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.15">
@@ -29257,15 +29257,15 @@
       </c>
       <c r="C67" s="173">
         <f t="shared" ref="C67:E67" si="31">C37/PRODUCT($C$28:$G$28)</f>
-        <v>7.7812500000000001E-5</v>
+        <v>2.7343750000000001E-5</v>
       </c>
       <c r="D67" s="173">
         <f t="shared" si="31"/>
-        <v>5.2499999999999997E-4</v>
+        <v>1.9140625000000001E-4</v>
       </c>
       <c r="E67" s="173">
         <f t="shared" si="31"/>
-        <v>2.1749999999999999E-3</v>
+        <v>8.7500000000000002E-4</v>
       </c>
       <c r="F67" s="53"/>
       <c r="G67" s="33"/>
@@ -29276,22 +29276,22 @@
       </c>
       <c r="C68" s="173">
         <f t="shared" ref="C68:E68" si="32">C38/PRODUCT($C$28:$G$28)</f>
-        <v>4.3312500000000002E-4</v>
+        <v>3.69140625E-4</v>
       </c>
       <c r="D68" s="173">
         <f t="shared" si="32"/>
-        <v>1.9838671875000002E-3</v>
+        <v>1.740234375E-3</v>
       </c>
       <c r="E68" s="173">
         <f t="shared" si="32"/>
-        <v>8.2828125000000002E-3</v>
+        <v>7.2656250000000004E-3</v>
       </c>
       <c r="F68" s="53" t="s">
         <v>98</v>
       </c>
       <c r="G68" s="176">
         <f>SUM(C67:E68)</f>
-        <v>1.3477617187500001E-2</v>
+        <v>1.0468750000000001E-2</v>
       </c>
       <c r="H68" s="86"/>
       <c r="I68" s="86"/>
@@ -29306,15 +29306,15 @@
       </c>
       <c r="C69" s="173">
         <f t="shared" ref="C69:E69" si="33">C39/PRODUCT($C$28:$G$28)</f>
-        <v>2.0453124999999999E-4</v>
+        <v>1.6078125000000001E-4</v>
       </c>
       <c r="D69" s="173">
         <f t="shared" si="33"/>
-        <v>9.2941406250000001E-4</v>
+        <v>7.5796874999999996E-4</v>
       </c>
       <c r="E69" s="173">
         <f t="shared" si="33"/>
-        <v>5.3109374999999997E-3</v>
+        <v>4.33125E-3</v>
       </c>
       <c r="F69" s="53"/>
       <c r="G69" s="33"/>
@@ -29331,15 +29331,15 @@
       </c>
       <c r="C70" s="173">
         <f t="shared" ref="C70:E70" si="34">C40/PRODUCT($C$28:$G$28)</f>
-        <v>3.140625E-4</v>
+        <v>2.1875E-4</v>
       </c>
       <c r="D70" s="173">
         <f t="shared" si="34"/>
-        <v>8.9999999999999998E-4</v>
+        <v>6.5625000000000004E-4</v>
       </c>
       <c r="E70" s="173">
         <f t="shared" si="34"/>
-        <v>4.7999999999999996E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="F70" s="53"/>
       <c r="G70" s="33"/>
@@ -29356,15 +29356,15 @@
       </c>
       <c r="C71" s="173">
         <f t="shared" ref="C71:E71" si="35">C41/PRODUCT($C$28:$G$28)</f>
-        <v>1.0546875000000001E-5</v>
+        <v>6.3281249999999997E-6</v>
       </c>
       <c r="D71" s="173">
         <f t="shared" si="35"/>
-        <v>5.9765624999999998E-5</v>
+        <v>3.5859375000000003E-5</v>
       </c>
       <c r="E71" s="173">
         <f t="shared" si="35"/>
-        <v>6.3281250000000002E-4</v>
+        <v>3.7968749999999998E-4</v>
       </c>
       <c r="F71" s="166"/>
       <c r="G71" s="167"/>

--- a/BasicSlot.xlsx
+++ b/BasicSlot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorkelly/Documents/Work/Project-GAME000/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278F28EA-7820-3E4F-88C8-C397E560FEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCB3C9E-8542-5F4C-ABEF-B41FAD904583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42320" yWindow="500" windowWidth="29400" windowHeight="16640" activeTab="4" xr2:uid="{1E62B096-205D-1A4D-A4E9-EFBBAB73C312}"/>
+    <workbookView xWindow="5760" yWindow="2000" windowWidth="29400" windowHeight="16640" activeTab="11" xr2:uid="{1E62B096-205D-1A4D-A4E9-EFBBAB73C312}"/>
   </bookViews>
   <sheets>
     <sheet name="bg_0" sheetId="2" r:id="rId1"/>
@@ -1267,7 +1267,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1494,11 +1494,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1863,6 +1861,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1892,6 +1925,20 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1982,20 +2029,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -2038,7 +2071,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2052,21 +2092,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2074,34 +2100,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2517,8 +2515,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5447,82 +5445,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15:B25">
-    <cfRule type="containsText" dxfId="29" priority="1" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="23" priority="1" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="22" priority="2" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="3" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="21" priority="3" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="4" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="20" priority="4" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="19" priority="5" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" stopIfTrue="1" operator="containsText" text="A Machine">
+    <cfRule type="containsText" dxfId="18" priority="6" stopIfTrue="1" operator="containsText" text="A Machine">
       <formula>NOT(ISERROR(SEARCH("A Machine",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B39">
-    <cfRule type="containsText" dxfId="23" priority="7" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="17" priority="7" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="16" priority="8" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="10" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="11" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" stopIfTrue="1" operator="containsText" text="A Machine">
+    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="A Machine">
       <formula>NOT(ISERROR(SEARCH("A Machine",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B54">
-    <cfRule type="containsText" dxfId="17" priority="13" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="11" priority="13" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="8" priority="16" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="7" priority="17" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" stopIfTrue="1" operator="containsText" text="A Machine">
+    <cfRule type="containsText" dxfId="6" priority="18" stopIfTrue="1" operator="containsText" text="A Machine">
       <formula>NOT(ISERROR(SEARCH("A Machine",B44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I39">
-    <cfRule type="containsText" dxfId="11" priority="19" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="5" priority="19" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="20" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="4" priority="20" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="21" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="3" priority="21" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="22" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="2" priority="22" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="23" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="1" priority="23" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="24" stopIfTrue="1" operator="containsText" text="A Machine">
+    <cfRule type="containsText" dxfId="0" priority="24" stopIfTrue="1" operator="containsText" text="A Machine">
       <formula>NOT(ISERROR(SEARCH("A Machine",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5538,7 +5536,7 @@
   <dimension ref="A1:B980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13374,8 +13372,8 @@
   </sheetPr>
   <dimension ref="A1:R384"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26656,7 +26654,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26776,7 +26774,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -27015,7 +27013,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27201,8 +27199,8 @@
   </sheetPr>
   <dimension ref="B2:T98"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27242,7 +27240,7 @@
       <c r="G2" s="83"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="171" t="s">
+      <c r="M2" s="169" t="s">
         <v>95</v>
       </c>
       <c r="N2" s="18" t="s">
@@ -27285,7 +27283,7 @@
       <c r="L3" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="172">
+      <c r="M3" s="170">
         <f>(SUM(C18:G19)+SUM(C17:G17))*3/40</f>
         <v>4.7249999999999996</v>
       </c>
@@ -27293,9 +27291,9 @@
         <f>G64</f>
         <v>1.1124999999999999E-2</v>
       </c>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
     </row>
     <row r="4" spans="2:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="str">
@@ -27324,7 +27322,7 @@
       <c r="L4" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="172">
+      <c r="M4" s="170">
         <f>(SUM(C20:G21)+SUM(C17:G17))*3/40</f>
         <v>4.7249999999999996</v>
       </c>
@@ -27361,7 +27359,7 @@
       <c r="L5" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="172">
+      <c r="M5" s="170">
         <f>(SUM(C22:G23)+SUM(C17:G17))*3/40</f>
         <v>4.2750000000000004</v>
       </c>
@@ -27420,7 +27418,7 @@
       <c r="M7" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="169" t="s">
+      <c r="N7" s="35" t="s">
         <v>108</v>
       </c>
       <c r="O7" s="35"/>
@@ -27455,7 +27453,7 @@
         <f>G64*(1-G66)*(1-G68)</f>
         <v>1.088984938659668E-2</v>
       </c>
-      <c r="N8" s="169">
+      <c r="N8" s="35">
         <f>M8*M3</f>
         <v>5.1454538351669313E-2</v>
       </c>
@@ -27491,7 +27489,7 @@
         <f>(1-G64)*G66*(1-G68)</f>
         <v>1.0549698019409177E-2</v>
       </c>
-      <c r="N9" s="169">
+      <c r="N9" s="35">
         <f t="shared" ref="N9:N10" si="0">M9*M4</f>
         <v>4.9847323141708359E-2</v>
       </c>
@@ -27528,7 +27526,7 @@
         <f>(1-G64)*(1-G66)*G68</f>
         <v>1.0240674581909181E-2</v>
       </c>
-      <c r="N10" s="169">
+      <c r="N10" s="35">
         <f t="shared" si="0"/>
         <v>4.377888383766175E-2</v>
       </c>
@@ -27565,7 +27563,7 @@
         <f>G64*G66*(1-G68)</f>
         <v>1.1868576965332029E-4</v>
       </c>
-      <c r="N11" s="169">
+      <c r="N11" s="35">
         <f>M11*M3*M4</f>
         <v>2.6497339861164082E-3</v>
       </c>
@@ -27588,7 +27586,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="I12" s="170"/>
+      <c r="I12" s="116"/>
       <c r="J12" s="164"/>
       <c r="L12" s="35" t="s">
         <v>102</v>
@@ -27597,7 +27595,7 @@
         <f>G64*G68*(1-G66)</f>
         <v>1.1520920715332032E-4</v>
       </c>
-      <c r="N12" s="169">
+      <c r="N12" s="35">
         <f>M12*M3*M5</f>
         <v>2.3271539787425993E-3</v>
       </c>
@@ -27627,7 +27625,7 @@
         <f>G66*G68*(1-G64)</f>
         <v>1.116105743408203E-4</v>
       </c>
-      <c r="N13" s="169">
+      <c r="N13" s="35">
         <f>M13*M4*M5</f>
         <v>2.2544638450756071E-3</v>
       </c>
@@ -27647,7 +27645,7 @@
         <f>G64*G66*G68</f>
         <v>1.2556365966796875E-6</v>
       </c>
-      <c r="N14" s="169">
+      <c r="N14" s="35">
         <f>M14*M3*M4*M5</f>
         <v>1.1984052691826819E-4</v>
       </c>
@@ -28152,15 +28150,15 @@
         <v>R1</v>
       </c>
       <c r="C33" s="53">
-        <f>((C18+C$17)*(D18+D$17)*(E18+E$17)*(F18+F$17)*(G18+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C4,(F18+F$17)*(G18+G$17),IF($D$3&gt;$C4,F$17*(G18+G$17),F$17*G$17)))</f>
+        <f t="shared" ref="C33:C41" si="1">((C18+C$17)*(D18+D$17)*(E18+E$17)*(F18+F$17)*(G18+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C4,(F18+F$17)*(G18+G$17),IF($D$3&gt;$C4,F$17*(G18+G$17),F$17*G$17)))</f>
         <v>15680</v>
       </c>
       <c r="D33" s="53">
-        <f>((C18+C$17)*(D18+D$17)*(E18+E$17)*(F18+F$17)-C$17*D$17*IF($E$3&gt;$D4,E$17*(F18+F$17),E$17*F$17))*(G$28-G18-G$17)</f>
+        <f t="shared" ref="D33:D41" si="2">((C18+C$17)*(D18+D$17)*(E18+E$17)*(F18+F$17)-C$17*D$17*IF($E$3&gt;$D4,E$17*(F18+F$17),E$17*F$17))*(G$28-G18-G$17)</f>
         <v>109760</v>
       </c>
       <c r="E33" s="53">
-        <f>((C18+C$17)*(D18+D$17)*(E18+E$17)*(F$28-F18-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F18)*$G$28</f>
+        <f t="shared" ref="E33:E41" si="3">((C18+C$17)*(D18+D$17)*(E18+E$17)*(F$28-F18-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F18)*$G$28</f>
         <v>591360</v>
       </c>
       <c r="F33" s="53"/>
@@ -28169,39 +28167,39 @@
         <v>R1</v>
       </c>
       <c r="J33" s="53">
-        <f>IF($C$3&gt;C4,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
+        <f t="shared" ref="J33:J40" si="4">IF($C$3&gt;C4,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
         <v>0</v>
       </c>
       <c r="K33" s="53">
-        <f>IF($D$3&gt;C4,$C$17*$D$17*$E$17*$F$17*G18,0)</f>
+        <f t="shared" ref="K33:K40" si="5">IF($D$3&gt;C4,$C$17*$D$17*$E$17*$F$17*G18,0)</f>
         <v>0</v>
       </c>
       <c r="L33" s="54">
-        <f>IF($E$3&gt;C4,$C$17*$D$17*$E$17*F18*($G$17+G18),0)</f>
+        <f t="shared" ref="L33:L40" si="6">IF($E$3&gt;C4,$C$17*$D$17*$E$17*F18*($G$17+G18),0)</f>
         <v>0</v>
       </c>
       <c r="M33" s="55">
-        <f t="shared" ref="M33:M40" si="1">SUM(J33:L33)</f>
+        <f t="shared" ref="M33:M40" si="7">SUM(J33:L33)</f>
         <v>0</v>
       </c>
       <c r="N33" s="53">
-        <f>IF($D$3&gt;D4,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G18),0)</f>
+        <f t="shared" ref="N33:N40" si="8">IF($D$3&gt;D4,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G18),0)</f>
         <v>0</v>
       </c>
       <c r="O33" s="54">
-        <f>IF($E$3&gt;D4,$C$17*$D$17*$E$17*F18*($G$28-$G$17-G18),0)</f>
+        <f t="shared" ref="O33:O40" si="9">IF($E$3&gt;D4,$C$17*$D$17*$E$17*F18*($G$28-$G$17-G18),0)</f>
         <v>0</v>
       </c>
       <c r="P33" s="55">
-        <f t="shared" ref="P33:P40" si="2">SUM(N33:O33)</f>
+        <f t="shared" ref="P33:P40" si="10">SUM(N33:O33)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="54">
-        <f>IF($E$3&gt;E4,$C$17*$D$17*$E$17*($F$28-$F$17-F18)*$G$28,0)</f>
+        <f t="shared" ref="Q33:Q40" si="11">IF($E$3&gt;E4,$C$17*$D$17*$E$17*($F$28-$F$17-F18)*$G$28,0)</f>
         <v>0</v>
       </c>
       <c r="R33" s="55">
-        <f t="shared" ref="R33:R40" si="3">SUM(Q33)</f>
+        <f t="shared" ref="R33:R40" si="12">SUM(Q33)</f>
         <v>0</v>
       </c>
     </row>
@@ -28210,15 +28208,15 @@
         <v>R2</v>
       </c>
       <c r="C34" s="53">
-        <f>((C19+C$17)*(D19+D$17)*(E19+E$17)*(F19+F$17)*(G19+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C5,(F19+F$17)*(G19+G$17),IF($D$3&gt;$C5,F$17*(G19+G$17),F$17*G$17)))</f>
+        <f t="shared" si="1"/>
         <v>23232</v>
       </c>
       <c r="D34" s="53">
-        <f>((C19+C$17)*(D19+D$17)*(E19+E$17)*(F19+F$17)-C$17*D$17*IF($E$3&gt;$D5,E$17*(F19+F$17),E$17*F$17))*(G$28-G19-G$17)</f>
+        <f t="shared" si="2"/>
         <v>92928</v>
       </c>
       <c r="E34" s="53">
-        <f>((C19+C$17)*(D19+D$17)*(E19+E$17)*(F$28-F19-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F19)*$G$28</f>
+        <f t="shared" si="3"/>
         <v>306240</v>
       </c>
       <c r="F34" s="53"/>
@@ -28227,39 +28225,39 @@
         <v>R2</v>
       </c>
       <c r="J34" s="53">
-        <f>IF($C$3&gt;C5,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K34" s="53">
-        <f>IF($D$3&gt;C5,$C$17*$D$17*$E$17*$F$17*G19,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="54">
-        <f>IF($E$3&gt;C5,$C$17*$D$17*$E$17*F19*($G$17+G19),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M34" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N34" s="53">
-        <f>IF($D$3&gt;D5,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G19),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O34" s="54">
-        <f>IF($E$3&gt;D5,$C$17*$D$17*$E$17*F19*($G$28-$G$17-G19),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P34" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q34" s="54">
-        <f>IF($E$3&gt;E5,$C$17*$D$17*$E$17*($F$28-$F$17-F19)*$G$28,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R34" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -28268,15 +28266,15 @@
         <v>Y1</v>
       </c>
       <c r="C35" s="53">
-        <f>((C20+C$17)*(D20+D$17)*(E20+E$17)*(F20+F$17)*(G20+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C6,(F20+F$17)*(G20+G$17),IF($D$3&gt;$C6,F$17*(G20+G$17),F$17*G$17)))</f>
+        <f t="shared" si="1"/>
         <v>5040</v>
       </c>
       <c r="D35" s="53">
-        <f>((C20+C$17)*(D20+D$17)*(E20+E$17)*(F20+F$17)-C$17*D$17*IF($E$3&gt;$D6,E$17*(F20+F$17),E$17*F$17))*(G$28-G20-G$17)</f>
+        <f t="shared" si="2"/>
         <v>35280</v>
       </c>
       <c r="E35" s="53">
-        <f>((C20+C$17)*(D20+D$17)*(E20+E$17)*(F$28-F20-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F20)*$G$28</f>
+        <f t="shared" si="3"/>
         <v>190080</v>
       </c>
       <c r="F35" s="53"/>
@@ -28285,39 +28283,39 @@
         <v>Y1</v>
       </c>
       <c r="J35" s="53">
-        <f>IF($C$3&gt;C6,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K35" s="53">
-        <f>IF($D$3&gt;C6,$C$17*$D$17*$E$17*$F$17*G20,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35" s="54">
-        <f>IF($E$3&gt;C6,$C$17*$D$17*$E$17*F20*($G$17+G20),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M35" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N35" s="53">
-        <f>IF($D$3&gt;D6,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G20),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O35" s="54">
-        <f>IF($E$3&gt;D6,$C$17*$D$17*$E$17*F20*($G$28-$G$17-G20),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P35" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q35" s="54">
-        <f>IF($E$3&gt;E6,$C$17*$D$17*$E$17*($F$28-$F$17-F20)*$G$28,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R35" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -28326,15 +28324,15 @@
         <v>Y2</v>
       </c>
       <c r="C36" s="53">
-        <f>((C21+C$17)*(D21+D$17)*(E21+E$17)*(F21+F$17)*(G21+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C7,(F21+F$17)*(G21+G$17),IF($D$3&gt;$C7,F$17*(G21+G$17),F$17*G$17)))</f>
+        <f t="shared" si="1"/>
         <v>66066</v>
       </c>
       <c r="D36" s="53">
-        <f>((C21+C$17)*(D21+D$17)*(E21+E$17)*(F21+F$17)-C$17*D$17*IF($E$3&gt;$D7,E$17*(F21+F$17),E$17*F$17))*(G$28-G21-G$17)</f>
+        <f t="shared" si="2"/>
         <v>174174</v>
       </c>
       <c r="E36" s="53">
-        <f>((C21+C$17)*(D21+D$17)*(E21+E$17)*(F$28-F21-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F21)*$G$28</f>
+        <f t="shared" si="3"/>
         <v>633360</v>
       </c>
       <c r="F36" s="53"/>
@@ -28343,39 +28341,39 @@
         <v>Y2</v>
       </c>
       <c r="J36" s="53">
-        <f>IF($C$3&gt;C7,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K36" s="53">
-        <f>IF($D$3&gt;C7,$C$17*$D$17*$E$17*$F$17*G21,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L36" s="54">
-        <f>IF($E$3&gt;C7,$C$17*$D$17*$E$17*F21*($G$17+G21),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M36" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N36" s="53">
-        <f>IF($D$3&gt;D7,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G21),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O36" s="54">
-        <f>IF($E$3&gt;D7,$C$17*$D$17*$E$17*F21*($G$28-$G$17-G21),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P36" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q36" s="54">
-        <f>IF($E$3&gt;E7,$C$17*$D$17*$E$17*($F$28-$F$17-F21)*$G$28,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R36" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -28384,15 +28382,15 @@
         <v>B1</v>
       </c>
       <c r="C37" s="53">
-        <f>((C22+C$17)*(D22+D$17)*(E22+E$17)*(F22+F$17)*(G22+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C8,(F22+F$17)*(G22+G$17),IF($D$3&gt;$C8,F$17*(G22+G$17),F$17*G$17)))</f>
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
       <c r="D37" s="53">
-        <f>((C22+C$17)*(D22+D$17)*(E22+E$17)*(F22+F$17)-C$17*D$17*IF($E$3&gt;$D8,E$17*(F22+F$17),E$17*F$17))*(G$28-G22-G$17)</f>
+        <f t="shared" si="2"/>
         <v>19600</v>
       </c>
       <c r="E37" s="53">
-        <f>((C22+C$17)*(D22+D$17)*(E22+E$17)*(F$28-F22-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F22)*$G$28</f>
+        <f t="shared" si="3"/>
         <v>89600</v>
       </c>
       <c r="F37" s="53"/>
@@ -28401,39 +28399,39 @@
         <v>B1</v>
       </c>
       <c r="J37" s="53">
-        <f>IF($C$3&gt;C8,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K37" s="53">
-        <f>IF($D$3&gt;C8,$C$17*$D$17*$E$17*$F$17*G22,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37" s="54">
-        <f>IF($E$3&gt;C8,$C$17*$D$17*$E$17*F22*($G$17+G22),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M37" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N37" s="53">
-        <f>IF($D$3&gt;D8,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G22),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O37" s="54">
-        <f>IF($E$3&gt;D8,$C$17*$D$17*$E$17*F22*($G$28-$G$17-G22),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P37" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q37" s="54">
-        <f>IF($E$3&gt;E8,$C$17*$D$17*$E$17*($F$28-$F$17-F22)*$G$28,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R37" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S37" s="35"/>
@@ -28443,15 +28441,15 @@
         <v>B2</v>
       </c>
       <c r="C38" s="53">
-        <f>((C23+C$17)*(D23+D$17)*(E23+E$17)*(F23+F$17)*(G23+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C9,(F23+F$17)*(G23+G$17),IF($D$3&gt;$C9,F$17*(G23+G$17),F$17*G$17)))</f>
+        <f t="shared" si="1"/>
         <v>37800</v>
       </c>
       <c r="D38" s="53">
-        <f>((C23+C$17)*(D23+D$17)*(E23+E$17)*(F23+F$17)-C$17*D$17*IF($E$3&gt;$D9,E$17*(F23+F$17),E$17*F$17))*(G$28-G23-G$17)</f>
+        <f t="shared" si="2"/>
         <v>178200</v>
       </c>
       <c r="E38" s="53">
-        <f>((C23+C$17)*(D23+D$17)*(E23+E$17)*(F$28-F23-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F23)*$G$28</f>
+        <f t="shared" si="3"/>
         <v>744000</v>
       </c>
       <c r="F38" s="53"/>
@@ -28460,39 +28458,39 @@
         <v>B2</v>
       </c>
       <c r="J38" s="53">
-        <f>IF($C$3&gt;C9,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K38" s="53">
-        <f>IF($D$3&gt;C9,$C$17*$D$17*$E$17*$F$17*G23,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L38" s="54">
-        <f>IF($E$3&gt;C9,$C$17*$D$17*$E$17*F23*($G$17+G23),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M38" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N38" s="53">
-        <f>IF($D$3&gt;D9,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G23),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O38" s="54">
-        <f>IF($E$3&gt;D9,$C$17*$D$17*$E$17*F23*($G$28-$G$17-G23),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P38" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q38" s="54">
-        <f>IF($E$3&gt;E9,$C$17*$D$17*$E$17*($F$28-$F$17-F23)*$G$28,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R38" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S38" s="35"/>
@@ -28502,15 +28500,15 @@
         <v>G1</v>
       </c>
       <c r="C39" s="53">
-        <f>((C24+C$17)*(D24+D$17)*(E24+E$17)*(F24+F$17)*(G24+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C10,(F24+F$17)*(G24+G$17),IF($D$3&gt;$C10,F$17*(G24+G$17),F$17*G$17)))</f>
+        <f t="shared" si="1"/>
         <v>16464</v>
       </c>
       <c r="D39" s="53">
-        <f>((C24+C$17)*(D24+D$17)*(E24+E$17)*(F24+F$17)-C$17*D$17*IF($E$3&gt;$D10,E$17*(F24+F$17),E$17*F$17))*(G$28-G24-G$17)</f>
+        <f t="shared" si="2"/>
         <v>77616</v>
       </c>
       <c r="E39" s="53">
-        <f>((C24+C$17)*(D24+D$17)*(E24+E$17)*(F$28-F24-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F24)*$G$28</f>
+        <f t="shared" si="3"/>
         <v>443520</v>
       </c>
       <c r="F39" s="53"/>
@@ -28519,39 +28517,39 @@
         <v>G1</v>
       </c>
       <c r="J39" s="53">
-        <f>IF($C$3&gt;C10,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K39" s="53">
-        <f>IF($D$3&gt;C10,$C$17*$D$17*$E$17*$F$17*G24,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L39" s="54">
-        <f>IF($E$3&gt;C10,$C$17*$D$17*$E$17*F24*($G$17+G24),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M39" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N39" s="53">
-        <f>IF($D$3&gt;D10,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G24),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O39" s="54">
-        <f>IF($E$3&gt;D10,$C$17*$D$17*$E$17*F24*($G$28-$G$17-G24),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P39" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q39" s="54">
-        <f>IF($E$3&gt;E10,$C$17*$D$17*$E$17*($F$28-$F$17-F24)*$G$28,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R39" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S39" s="35"/>
@@ -28561,15 +28559,15 @@
         <v>G2</v>
       </c>
       <c r="C40" s="53">
-        <f>((C25+C$17)*(D25+D$17)*(E25+E$17)*(F25+F$17)*(G25+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C11,(F25+F$17)*(G25+G$17),IF($D$3&gt;$C11,F$17*(G25+G$17),F$17*G$17)))</f>
+        <f t="shared" si="1"/>
         <v>22400</v>
       </c>
       <c r="D40" s="53">
-        <f>((C25+C$17)*(D25+D$17)*(E25+E$17)*(F25+F$17)-C$17*D$17*IF($E$3&gt;$D11,E$17*(F25+F$17),E$17*F$17))*(G$28-G25-G$17)</f>
+        <f t="shared" si="2"/>
         <v>67200</v>
       </c>
       <c r="E40" s="53">
-        <f>((C25+C$17)*(D25+D$17)*(E25+E$17)*(F$28-F25-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F25)*$G$28</f>
+        <f t="shared" si="3"/>
         <v>358400</v>
       </c>
       <c r="F40" s="53"/>
@@ -28578,39 +28576,39 @@
         <v>G2</v>
       </c>
       <c r="J40" s="58">
-        <f>IF($C$3&gt;C11,$C$17*$D$17*$E$17*$F$17*$G$17,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K40" s="58">
-        <f>IF($D$3&gt;C11,$C$17*$D$17*$E$17*$F$17*G25,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L40" s="59">
-        <f>IF($E$3&gt;C11,$C$17*$D$17*$E$17*F25*($G$17+G25),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M40" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N40" s="58">
-        <f>IF($D$3&gt;D11,$C$17*$D$17*$E$17*$F$17*($G$28-$G$17-G25),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O40" s="59">
-        <f>IF($E$3&gt;D11,$C$17*$D$17*$E$17*F25*($G$28-$G$17-G25),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P40" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q40" s="59">
-        <f>IF($E$3&gt;E11,$C$17*$D$17*$E$17*($F$28-$F$17-F25)*$G$28,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R40" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -28619,29 +28617,29 @@
         <v>G3</v>
       </c>
       <c r="C41" s="53">
-        <f>((C26+C$17)*(D26+D$17)*(E26+E$17)*(F26+F$17)*(G26+G$17)-C$17*D$17*E$17*IF($E$3&gt;$C12,(F26+F$17)*(G26+G$17),IF($D$3&gt;$C12,F$17*(G26+G$17),F$17*G$17)))</f>
+        <f t="shared" si="1"/>
         <v>648</v>
       </c>
       <c r="D41" s="53">
-        <f>((C26+C$17)*(D26+D$17)*(E26+E$17)*(F26+F$17)-C$17*D$17*IF($E$3&gt;$D12,E$17*(F26+F$17),E$17*F$17))*(G$28-G26-G$17)</f>
+        <f t="shared" si="2"/>
         <v>3672</v>
       </c>
       <c r="E41" s="53">
-        <f>((C26+C$17)*(D26+D$17)*(E26+E$17)*(F$28-F26-F$17)*G$28)-$C$17*$D$17*$E$17*($F$28-$F$17-F26)*$G$28</f>
+        <f t="shared" si="3"/>
         <v>38880</v>
       </c>
       <c r="F41" s="166"/>
       <c r="G41" s="167"/>
       <c r="I41" s="168"/>
-      <c r="J41" s="169"/>
-      <c r="K41" s="169"/>
-      <c r="L41" s="169"/>
-      <c r="M41" s="169"/>
-      <c r="N41" s="169"/>
-      <c r="O41" s="169"/>
-      <c r="P41" s="169"/>
-      <c r="Q41" s="169"/>
-      <c r="R41" s="169"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
     </row>
     <row r="42" spans="2:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="73" t="str">
@@ -28726,11 +28724,11 @@
         <v>0</v>
       </c>
       <c r="D48" s="50">
-        <f t="shared" ref="D48:E48" si="4">D32*D3*$J$8</f>
+        <f t="shared" ref="D48:E48" si="13">D32*D3*$J$8</f>
         <v>0</v>
       </c>
       <c r="E48" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F48" s="50"/>
@@ -28744,11 +28742,11 @@
         <v>0</v>
       </c>
       <c r="K48" s="50">
-        <f t="shared" ref="K48:L48" si="5">D48</f>
+        <f t="shared" ref="K48:L48" si="14">D48</f>
         <v>0</v>
       </c>
       <c r="L48" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M48" s="50"/>
@@ -28759,15 +28757,15 @@
         <v>R1</v>
       </c>
       <c r="C49" s="50">
-        <f t="shared" ref="C49:E49" si="6">C33*C4*$J$8</f>
+        <f t="shared" ref="C49:E49" si="15">C33*C4*$J$8</f>
         <v>1568000</v>
       </c>
       <c r="D49" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4390400</v>
       </c>
       <c r="E49" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5913600</v>
       </c>
       <c r="F49" s="53"/>
@@ -28780,11 +28778,11 @@
         <v>8134678.2129316023</v>
       </c>
       <c r="K49" s="50">
-        <f t="shared" ref="K49:L49" si="7">D49*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
+        <f t="shared" ref="K49:L49" si="16">D49*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
         <v>22777098.996208489</v>
       </c>
       <c r="L49" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>30679357.83162776</v>
       </c>
       <c r="M49" s="53"/>
@@ -28795,15 +28793,15 @@
         <v>R2</v>
       </c>
       <c r="C50" s="50">
-        <f t="shared" ref="C50:E50" si="8">C34*C5*$J$8</f>
+        <f t="shared" ref="C50:E50" si="17">C34*C5*$J$8</f>
         <v>1161600</v>
       </c>
       <c r="D50" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1858560</v>
       </c>
       <c r="E50" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1531200</v>
       </c>
       <c r="F50" s="53"/>
@@ -28816,11 +28814,11 @@
         <v>6026302.4312125966</v>
       </c>
       <c r="K50" s="50">
-        <f t="shared" ref="K50" si="9">D50*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
+        <f t="shared" ref="K50" si="18">D50*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
         <v>9642083.8899401538</v>
       </c>
       <c r="L50" s="50">
-        <f t="shared" ref="L50" si="10">E50*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
+        <f t="shared" ref="L50" si="19">E50*$M$3*(1+$M$4*$N$4)*(1+$M$5*$N$5)</f>
         <v>7943762.2956893304</v>
       </c>
       <c r="M50" s="53"/>
@@ -28831,15 +28829,15 @@
         <v>Y1</v>
       </c>
       <c r="C51" s="50">
-        <f t="shared" ref="C51:E51" si="11">C35*C6*$J$8</f>
+        <f t="shared" ref="C51:E51" si="20">C35*C6*$J$8</f>
         <v>504000</v>
       </c>
       <c r="D51" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1411200</v>
       </c>
       <c r="E51" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1900800</v>
       </c>
       <c r="F51" s="53"/>
@@ -28852,11 +28850,11 @@
         <v>2618759.0158292945</v>
       </c>
       <c r="K51" s="50">
-        <f t="shared" ref="K51:L51" si="12">D51*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
+        <f t="shared" ref="K51:L51" si="21">D51*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
         <v>7332525.2443220234</v>
       </c>
       <c r="L51" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>9876462.5739847682</v>
       </c>
       <c r="M51" s="53"/>
@@ -28867,15 +28865,15 @@
         <v>Y2</v>
       </c>
       <c r="C52" s="50">
-        <f t="shared" ref="C52:E52" si="13">C36*C7*$J$8</f>
+        <f t="shared" ref="C52:E52" si="22">C36*C7*$J$8</f>
         <v>3303300</v>
       </c>
       <c r="D52" s="50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3483480</v>
       </c>
       <c r="E52" s="50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3166800</v>
       </c>
       <c r="F52" s="53"/>
@@ -28888,11 +28886,11 @@
         <v>17163783.049581163</v>
       </c>
       <c r="K52" s="50">
-        <f t="shared" ref="K52" si="14">D52*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
+        <f t="shared" ref="K52" si="23">D52*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
         <v>18099989.397740137</v>
       </c>
       <c r="L52" s="50">
-        <f t="shared" ref="L52" si="15">E52*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
+        <f t="shared" ref="L52" si="24">E52*$M$4*(1+$M$3*$N$3)*(1+$M$5*$N$5)</f>
         <v>16454535.816127397</v>
       </c>
       <c r="M52" s="53"/>
@@ -28903,15 +28901,15 @@
         <v>B1</v>
       </c>
       <c r="C53" s="50">
-        <f t="shared" ref="C53:E53" si="16">C37*C8*$J$8</f>
+        <f t="shared" ref="C53:E53" si="25">C37*C8*$J$8</f>
         <v>280000</v>
       </c>
       <c r="D53" s="50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>784000</v>
       </c>
       <c r="E53" s="50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>896000</v>
       </c>
       <c r="F53" s="53"/>
@@ -28924,11 +28922,11 @@
         <v>1324103.2033351683</v>
       </c>
       <c r="K53" s="50">
-        <f t="shared" ref="K53:L53" si="17">D53*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
+        <f t="shared" ref="K53:L53" si="26">D53*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
         <v>3707488.969338472</v>
       </c>
       <c r="L53" s="50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>4237130.2506725388</v>
       </c>
       <c r="M53" s="53"/>
@@ -28939,15 +28937,15 @@
         <v>B2</v>
       </c>
       <c r="C54" s="50">
-        <f t="shared" ref="C54:E54" si="18">C38*C9*$J$8</f>
+        <f t="shared" ref="C54:E54" si="27">C38*C9*$J$8</f>
         <v>1890000</v>
       </c>
       <c r="D54" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>3564000</v>
       </c>
       <c r="E54" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>3720000</v>
       </c>
       <c r="F54" s="53"/>
@@ -28960,11 +28958,11 @@
         <v>8937696.6225123871</v>
       </c>
       <c r="K54" s="50">
-        <f t="shared" ref="K54" si="19">D54*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
+        <f t="shared" ref="K54" si="28">D54*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
         <v>16853942.202451933</v>
       </c>
       <c r="L54" s="50">
-        <f t="shared" ref="L54" si="20">E54*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
+        <f t="shared" ref="L54" si="29">E54*$M$5*(1+$M$3*$N$3)*(1+$M$4*$N$4)</f>
         <v>17591656.844310094</v>
       </c>
       <c r="M54" s="53"/>
@@ -28975,15 +28973,15 @@
         <v>G1</v>
       </c>
       <c r="C55" s="50">
-        <f t="shared" ref="C55:E55" si="21">C39*C10*$J$8</f>
+        <f t="shared" ref="C55:E55" si="30">C39*C10*$J$8</f>
         <v>411600</v>
       </c>
       <c r="D55" s="50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>776160</v>
       </c>
       <c r="E55" s="50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1108800</v>
       </c>
       <c r="F55" s="53"/>
@@ -28992,15 +28990,15 @@
         <v>G1</v>
       </c>
       <c r="J55" s="50">
-        <f t="shared" ref="J49:J57" si="22">C55</f>
+        <f t="shared" ref="J55:J57" si="31">C55</f>
         <v>411600</v>
       </c>
       <c r="K55" s="50">
-        <f t="shared" ref="K49:K57" si="23">D55</f>
+        <f t="shared" ref="K55:K57" si="32">D55</f>
         <v>776160</v>
       </c>
       <c r="L55" s="50">
-        <f t="shared" ref="L49:L57" si="24">E55</f>
+        <f t="shared" ref="L55:L57" si="33">E55</f>
         <v>1108800</v>
       </c>
       <c r="M55" s="53"/>
@@ -29011,15 +29009,15 @@
         <v>G2</v>
       </c>
       <c r="C56" s="50">
-        <f t="shared" ref="C56:E57" si="25">C40*C11*$J$8</f>
+        <f t="shared" ref="C56:E57" si="34">C40*C11*$J$8</f>
         <v>560000</v>
       </c>
       <c r="D56" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>672000</v>
       </c>
       <c r="E56" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>896000</v>
       </c>
       <c r="F56" s="53"/>
@@ -29028,15 +29026,15 @@
         <v>G2</v>
       </c>
       <c r="J56" s="50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>560000</v>
       </c>
       <c r="K56" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>672000</v>
       </c>
       <c r="L56" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>896000</v>
       </c>
       <c r="M56" s="53"/>
@@ -29047,15 +29045,15 @@
         <v>G3</v>
       </c>
       <c r="C57" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>16200</v>
       </c>
       <c r="D57" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>36720</v>
       </c>
       <c r="E57" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>97200</v>
       </c>
       <c r="F57" s="166"/>
@@ -29064,19 +29062,19 @@
         <v>G3</v>
       </c>
       <c r="J57" s="50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>16200</v>
       </c>
       <c r="K57" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>36720</v>
       </c>
       <c r="L57" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>97200</v>
       </c>
       <c r="M57" s="166"/>
-      <c r="N57" s="177">
+      <c r="N57" s="175">
         <f>SUM(J48:L58)/PRODUCT(C28:G28)</f>
         <v>2.0896097348419467</v>
       </c>
@@ -29122,7 +29120,7 @@
       <c r="F60" s="30"/>
       <c r="G60" s="30"/>
       <c r="I60" s="18"/>
-      <c r="L60" s="171"/>
+      <c r="L60" s="169"/>
     </row>
     <row r="61" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="70" t="s">
@@ -29140,70 +29138,70 @@
       <c r="F61" s="71"/>
       <c r="G61" s="72"/>
       <c r="I61" s="35"/>
-      <c r="L61" s="174"/>
+      <c r="L61" s="172"/>
     </row>
     <row r="62" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="173">
+      <c r="C62" s="171">
         <f>C32/PRODUCT($C$28:$G$28)</f>
         <v>0</v>
       </c>
-      <c r="D62" s="173">
-        <f t="shared" ref="D62:E62" si="26">D32/PRODUCT($C$28:$G$28)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="173">
-        <f t="shared" si="26"/>
+      <c r="D62" s="171">
+        <f t="shared" ref="D62:E62" si="35">D32/PRODUCT($C$28:$G$28)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="171">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F62" s="50"/>
       <c r="G62" s="56"/>
       <c r="J62" s="35"/>
-      <c r="L62" s="175"/>
+      <c r="L62" s="173"/>
     </row>
     <row r="63" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="173">
-        <f t="shared" ref="C63:E63" si="27">C33/PRODUCT($C$28:$G$28)</f>
+      <c r="C63" s="171">
+        <f t="shared" ref="C63:E63" si="36">C33/PRODUCT($C$28:$G$28)</f>
         <v>1.53125E-4</v>
       </c>
-      <c r="D63" s="173">
-        <f t="shared" si="27"/>
+      <c r="D63" s="171">
+        <f t="shared" si="36"/>
         <v>1.0718749999999999E-3</v>
       </c>
-      <c r="E63" s="173">
-        <f t="shared" si="27"/>
+      <c r="E63" s="171">
+        <f t="shared" si="36"/>
         <v>5.7749999999999998E-3</v>
       </c>
       <c r="F63" s="53"/>
       <c r="G63" s="33"/>
       <c r="K63" s="35"/>
-      <c r="L63" s="175"/>
+      <c r="L63" s="173"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="173">
-        <f t="shared" ref="C64:E64" si="28">C34/PRODUCT($C$28:$G$28)</f>
+      <c r="C64" s="171">
+        <f t="shared" ref="C64:E64" si="37">C34/PRODUCT($C$28:$G$28)</f>
         <v>2.26875E-4</v>
       </c>
-      <c r="D64" s="173">
-        <f t="shared" si="28"/>
+      <c r="D64" s="171">
+        <f t="shared" si="37"/>
         <v>9.075E-4</v>
       </c>
-      <c r="E64" s="173">
-        <f t="shared" si="28"/>
+      <c r="E64" s="171">
+        <f t="shared" si="37"/>
         <v>2.9906249999999998E-3</v>
       </c>
       <c r="F64" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G64" s="176">
+      <c r="G64" s="174">
         <f>SUM(C63:E64)</f>
         <v>1.1124999999999999E-2</v>
       </c>
@@ -29212,16 +29210,16 @@
       <c r="B65" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="173">
-        <f t="shared" ref="C65:E65" si="29">C35/PRODUCT($C$28:$G$28)</f>
+      <c r="C65" s="171">
+        <f t="shared" ref="C65:E65" si="38">C35/PRODUCT($C$28:$G$28)</f>
         <v>4.921875E-5</v>
       </c>
-      <c r="D65" s="173">
-        <f t="shared" si="29"/>
+      <c r="D65" s="171">
+        <f t="shared" si="38"/>
         <v>3.4453125E-4</v>
       </c>
-      <c r="E65" s="173">
-        <f t="shared" si="29"/>
+      <c r="E65" s="171">
+        <f t="shared" si="38"/>
         <v>1.85625E-3</v>
       </c>
       <c r="F65" s="53"/>
@@ -29231,22 +29229,22 @@
       <c r="B66" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="173">
-        <f t="shared" ref="C66:E66" si="30">C36/PRODUCT($C$28:$G$28)</f>
+      <c r="C66" s="171">
+        <f t="shared" ref="C66:E66" si="39">C36/PRODUCT($C$28:$G$28)</f>
         <v>6.4517578125000002E-4</v>
       </c>
-      <c r="D66" s="173">
-        <f t="shared" si="30"/>
+      <c r="D66" s="171">
+        <f t="shared" si="39"/>
         <v>1.7009179687500001E-3</v>
       </c>
-      <c r="E66" s="173">
-        <f t="shared" si="30"/>
+      <c r="E66" s="171">
+        <f t="shared" si="39"/>
         <v>6.1851562499999997E-3</v>
       </c>
       <c r="F66" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="G66" s="176">
+      <c r="G66" s="174">
         <f>SUM(C65:E66)</f>
         <v>1.0781249999999999E-2</v>
       </c>
@@ -29255,16 +29253,16 @@
       <c r="B67" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="173">
-        <f t="shared" ref="C67:E67" si="31">C37/PRODUCT($C$28:$G$28)</f>
+      <c r="C67" s="171">
+        <f t="shared" ref="C67:E67" si="40">C37/PRODUCT($C$28:$G$28)</f>
         <v>2.7343750000000001E-5</v>
       </c>
-      <c r="D67" s="173">
-        <f t="shared" si="31"/>
+      <c r="D67" s="171">
+        <f t="shared" si="40"/>
         <v>1.9140625000000001E-4</v>
       </c>
-      <c r="E67" s="173">
-        <f t="shared" si="31"/>
+      <c r="E67" s="171">
+        <f t="shared" si="40"/>
         <v>8.7500000000000002E-4</v>
       </c>
       <c r="F67" s="53"/>
@@ -29274,22 +29272,22 @@
       <c r="B68" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="173">
-        <f t="shared" ref="C68:E68" si="32">C38/PRODUCT($C$28:$G$28)</f>
+      <c r="C68" s="171">
+        <f t="shared" ref="C68:E68" si="41">C38/PRODUCT($C$28:$G$28)</f>
         <v>3.69140625E-4</v>
       </c>
-      <c r="D68" s="173">
-        <f t="shared" si="32"/>
+      <c r="D68" s="171">
+        <f t="shared" si="41"/>
         <v>1.740234375E-3</v>
       </c>
-      <c r="E68" s="173">
-        <f t="shared" si="32"/>
+      <c r="E68" s="171">
+        <f t="shared" si="41"/>
         <v>7.2656250000000004E-3</v>
       </c>
       <c r="F68" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="G68" s="176">
+      <c r="G68" s="174">
         <f>SUM(C67:E68)</f>
         <v>1.0468750000000001E-2</v>
       </c>
@@ -29304,16 +29302,16 @@
       <c r="B69" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="173">
-        <f t="shared" ref="C69:E69" si="33">C39/PRODUCT($C$28:$G$28)</f>
+      <c r="C69" s="171">
+        <f t="shared" ref="C69:E69" si="42">C39/PRODUCT($C$28:$G$28)</f>
         <v>1.6078125000000001E-4</v>
       </c>
-      <c r="D69" s="173">
-        <f t="shared" si="33"/>
+      <c r="D69" s="171">
+        <f t="shared" si="42"/>
         <v>7.5796874999999996E-4</v>
       </c>
-      <c r="E69" s="173">
-        <f t="shared" si="33"/>
+      <c r="E69" s="171">
+        <f t="shared" si="42"/>
         <v>4.33125E-3</v>
       </c>
       <c r="F69" s="53"/>
@@ -29329,16 +29327,16 @@
       <c r="B70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="173">
-        <f t="shared" ref="C70:E70" si="34">C40/PRODUCT($C$28:$G$28)</f>
+      <c r="C70" s="171">
+        <f t="shared" ref="C70:E70" si="43">C40/PRODUCT($C$28:$G$28)</f>
         <v>2.1875E-4</v>
       </c>
-      <c r="D70" s="173">
-        <f t="shared" si="34"/>
+      <c r="D70" s="171">
+        <f t="shared" si="43"/>
         <v>6.5625000000000004E-4</v>
       </c>
-      <c r="E70" s="173">
-        <f t="shared" si="34"/>
+      <c r="E70" s="171">
+        <f t="shared" si="43"/>
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="F70" s="53"/>
@@ -29354,16 +29352,16 @@
       <c r="B71" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="173">
-        <f t="shared" ref="C71:E71" si="35">C41/PRODUCT($C$28:$G$28)</f>
+      <c r="C71" s="171">
+        <f t="shared" ref="C71:E71" si="44">C41/PRODUCT($C$28:$G$28)</f>
         <v>6.3281249999999997E-6</v>
       </c>
-      <c r="D71" s="173">
-        <f t="shared" si="35"/>
+      <c r="D71" s="171">
+        <f t="shared" si="44"/>
         <v>3.5859375000000003E-5</v>
       </c>
-      <c r="E71" s="173">
-        <f t="shared" si="35"/>
+      <c r="E71" s="171">
+        <f t="shared" si="44"/>
         <v>3.7968749999999998E-4</v>
       </c>
       <c r="F71" s="166"/>
@@ -29582,120 +29580,120 @@
     <cfRule type="containsText" dxfId="83" priority="13" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="14" stopIfTrue="1" operator="containsText" text="War Machine">
-      <formula>NOT(ISERROR(SEARCH("War Machine",B16)))</formula>
+    <cfRule type="containsText" dxfId="82" priority="18" stopIfTrue="1" operator="containsText" text="A Machine">
+      <formula>NOT(ISERROR(SEARCH("A Machine",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="15" stopIfTrue="1" operator="containsText" text="D Machine">
-      <formula>NOT(ISERROR(SEARCH("D Machine",B16)))</formula>
+    <cfRule type="containsText" dxfId="81" priority="17" stopIfTrue="1" operator="containsText" text="B Machine">
+      <formula>NOT(ISERROR(SEARCH("B Machine",B16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="80" priority="16" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="17" stopIfTrue="1" operator="containsText" text="B Machine">
-      <formula>NOT(ISERROR(SEARCH("B Machine",B16)))</formula>
+    <cfRule type="containsText" dxfId="79" priority="15" stopIfTrue="1" operator="containsText" text="D Machine">
+      <formula>NOT(ISERROR(SEARCH("D Machine",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="18" stopIfTrue="1" operator="containsText" text="A Machine">
-      <formula>NOT(ISERROR(SEARCH("A Machine",B16)))</formula>
+    <cfRule type="containsText" dxfId="78" priority="14" stopIfTrue="1" operator="containsText" text="War Machine">
+      <formula>NOT(ISERROR(SEARCH("War Machine",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="containsText" dxfId="77" priority="19" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="77" priority="24" stopIfTrue="1" operator="containsText" text="A Machine">
+      <formula>NOT(ISERROR(SEARCH("A Machine",B31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="19" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="20" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="75" priority="20" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="21" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="74" priority="21" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="22" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="73" priority="22" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="23" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="72" priority="23" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",B31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="24" stopIfTrue="1" operator="containsText" text="A Machine">
-      <formula>NOT(ISERROR(SEARCH("A Machine",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B58">
-    <cfRule type="containsText" dxfId="71" priority="31" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="71" priority="32" stopIfTrue="1" operator="containsText" text="War Machine">
+      <formula>NOT(ISERROR(SEARCH("War Machine",B47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="33" stopIfTrue="1" operator="containsText" text="D Machine">
+      <formula>NOT(ISERROR(SEARCH("D Machine",B47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="34" stopIfTrue="1" operator="containsText" text="C MAchine">
+      <formula>NOT(ISERROR(SEARCH("C MAchine",B47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="35" stopIfTrue="1" operator="containsText" text="B Machine">
+      <formula>NOT(ISERROR(SEARCH("B Machine",B47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="36" stopIfTrue="1" operator="containsText" text="A Machine">
+      <formula>NOT(ISERROR(SEARCH("A Machine",B47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="31" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="32" stopIfTrue="1" operator="containsText" text="War Machine">
-      <formula>NOT(ISERROR(SEARCH("War Machine",B47)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B72">
+    <cfRule type="containsText" dxfId="65" priority="8" stopIfTrue="1" operator="containsText" text="War Machine">
+      <formula>NOT(ISERROR(SEARCH("War Machine",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="33" stopIfTrue="1" operator="containsText" text="D Machine">
-      <formula>NOT(ISERROR(SEARCH("D Machine",B47)))</formula>
+    <cfRule type="containsText" dxfId="64" priority="9" stopIfTrue="1" operator="containsText" text="D Machine">
+      <formula>NOT(ISERROR(SEARCH("D Machine",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="34" stopIfTrue="1" operator="containsText" text="C MAchine">
-      <formula>NOT(ISERROR(SEARCH("C MAchine",B47)))</formula>
+    <cfRule type="containsText" dxfId="63" priority="10" stopIfTrue="1" operator="containsText" text="C MAchine">
+      <formula>NOT(ISERROR(SEARCH("C MAchine",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="35" stopIfTrue="1" operator="containsText" text="B Machine">
-      <formula>NOT(ISERROR(SEARCH("B Machine",B47)))</formula>
+    <cfRule type="containsText" dxfId="62" priority="11" stopIfTrue="1" operator="containsText" text="B Machine">
+      <formula>NOT(ISERROR(SEARCH("B Machine",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="36" stopIfTrue="1" operator="containsText" text="A Machine">
-      <formula>NOT(ISERROR(SEARCH("A Machine",B47)))</formula>
+    <cfRule type="containsText" dxfId="61" priority="12" stopIfTrue="1" operator="containsText" text="A Machine">
+      <formula>NOT(ISERROR(SEARCH("A Machine",B61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="7" stopIfTrue="1" operator="containsText" text="Iron Man">
+      <formula>NOT(ISERROR(SEARCH("Iron Man",B61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I41">
-    <cfRule type="containsText" dxfId="65" priority="43" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="59" priority="48" stopIfTrue="1" operator="containsText" text="A Machine">
+      <formula>NOT(ISERROR(SEARCH("A Machine",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="43" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",I31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="44" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="57" priority="44" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",I31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="45" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="56" priority="45" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",I31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="46" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="55" priority="46" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",I31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="47" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="54" priority="47" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",I31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="48" stopIfTrue="1" operator="containsText" text="A Machine">
-      <formula>NOT(ISERROR(SEARCH("A Machine",I31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B72">
-    <cfRule type="containsText" dxfId="59" priority="7" stopIfTrue="1" operator="containsText" text="Iron Man">
-      <formula>NOT(ISERROR(SEARCH("Iron Man",B61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="8" stopIfTrue="1" operator="containsText" text="War Machine">
-      <formula>NOT(ISERROR(SEARCH("War Machine",B61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="9" stopIfTrue="1" operator="containsText" text="D Machine">
-      <formula>NOT(ISERROR(SEARCH("D Machine",B61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="10" stopIfTrue="1" operator="containsText" text="C MAchine">
-      <formula>NOT(ISERROR(SEARCH("C MAchine",B61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="11" stopIfTrue="1" operator="containsText" text="B Machine">
-      <formula>NOT(ISERROR(SEARCH("B Machine",B61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="12" stopIfTrue="1" operator="containsText" text="A Machine">
-      <formula>NOT(ISERROR(SEARCH("A Machine",B61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I58">
-    <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="Iron Man">
-      <formula>NOT(ISERROR(SEARCH("Iron Man",I47)))</formula>
+    <cfRule type="containsText" dxfId="53" priority="6" stopIfTrue="1" operator="containsText" text="A Machine">
+      <formula>NOT(ISERROR(SEARCH("A Machine",I47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="52" priority="5" stopIfTrue="1" operator="containsText" text="B Machine">
+      <formula>NOT(ISERROR(SEARCH("B Machine",I47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="4" stopIfTrue="1" operator="containsText" text="C MAchine">
+      <formula>NOT(ISERROR(SEARCH("C MAchine",I47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="3" stopIfTrue="1" operator="containsText" text="D Machine">
+      <formula>NOT(ISERROR(SEARCH("D Machine",I47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="2" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",I47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="D Machine">
-      <formula>NOT(ISERROR(SEARCH("D Machine",I47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" stopIfTrue="1" operator="containsText" text="C MAchine">
-      <formula>NOT(ISERROR(SEARCH("C MAchine",I47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" stopIfTrue="1" operator="containsText" text="B Machine">
-      <formula>NOT(ISERROR(SEARCH("B Machine",I47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" stopIfTrue="1" operator="containsText" text="A Machine">
-      <formula>NOT(ISERROR(SEARCH("A Machine",I47)))</formula>
+    <cfRule type="containsText" dxfId="48" priority="1" stopIfTrue="1" operator="containsText" text="Iron Man">
+      <formula>NOT(ISERROR(SEARCH("Iron Man",I47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31387,82 +31385,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15:B25">
-    <cfRule type="containsText" dxfId="53" priority="1" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="47" priority="1" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="46" priority="2" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="3" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="45" priority="3" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="44" priority="4" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="43" priority="5" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" stopIfTrue="1" operator="containsText" text="A Machine">
+    <cfRule type="containsText" dxfId="42" priority="6" stopIfTrue="1" operator="containsText" text="A Machine">
       <formula>NOT(ISERROR(SEARCH("A Machine",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B39">
-    <cfRule type="containsText" dxfId="47" priority="7" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="41" priority="7" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="8" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="40" priority="8" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="9" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="39" priority="9" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="10" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="38" priority="10" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="11" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="37" priority="11" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="12" stopIfTrue="1" operator="containsText" text="A Machine">
+    <cfRule type="containsText" dxfId="36" priority="12" stopIfTrue="1" operator="containsText" text="A Machine">
       <formula>NOT(ISERROR(SEARCH("A Machine",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B54">
-    <cfRule type="containsText" dxfId="41" priority="13" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="35" priority="13" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="14" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="34" priority="14" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="15" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="33" priority="15" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="16" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="32" priority="16" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="17" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="31" priority="17" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="18" stopIfTrue="1" operator="containsText" text="A Machine">
+    <cfRule type="containsText" dxfId="30" priority="18" stopIfTrue="1" operator="containsText" text="A Machine">
       <formula>NOT(ISERROR(SEARCH("A Machine",B44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I38">
-    <cfRule type="containsText" dxfId="35" priority="19" stopIfTrue="1" operator="containsText" text="Iron Man">
+    <cfRule type="containsText" dxfId="29" priority="19" stopIfTrue="1" operator="containsText" text="Iron Man">
       <formula>NOT(ISERROR(SEARCH("Iron Man",I29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="20" stopIfTrue="1" operator="containsText" text="War Machine">
+    <cfRule type="containsText" dxfId="28" priority="20" stopIfTrue="1" operator="containsText" text="War Machine">
       <formula>NOT(ISERROR(SEARCH("War Machine",I29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="21" stopIfTrue="1" operator="containsText" text="D Machine">
+    <cfRule type="containsText" dxfId="27" priority="21" stopIfTrue="1" operator="containsText" text="D Machine">
       <formula>NOT(ISERROR(SEARCH("D Machine",I29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="22" stopIfTrue="1" operator="containsText" text="C MAchine">
+    <cfRule type="containsText" dxfId="26" priority="22" stopIfTrue="1" operator="containsText" text="C MAchine">
       <formula>NOT(ISERROR(SEARCH("C MAchine",I29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="23" stopIfTrue="1" operator="containsText" text="B Machine">
+    <cfRule type="containsText" dxfId="25" priority="23" stopIfTrue="1" operator="containsText" text="B Machine">
       <formula>NOT(ISERROR(SEARCH("B Machine",I29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="24" stopIfTrue="1" operator="containsText" text="A Machine">
+    <cfRule type="containsText" dxfId="24" priority="24" stopIfTrue="1" operator="containsText" text="A Machine">
       <formula>NOT(ISERROR(SEARCH("A Machine",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
